--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6.308380021856853E-15</v>
+        <v>9.579440671982837E-11</v>
       </c>
       <c r="E3">
-        <v>6.308380021856853E-15</v>
+        <v>9.579440671982837E-11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.001120618840637487</v>
+        <v>0.002166236941271408</v>
       </c>
       <c r="E4">
-        <v>0.001120618840637487</v>
+        <v>0.002166236941271408</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.008650084889271E-10</v>
+        <v>2.94254022519651E-07</v>
       </c>
       <c r="E5">
-        <v>2.008650084889271E-10</v>
+        <v>2.94254022519651E-07</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.506251270947781E-28</v>
+        <v>3.436786180856466E-42</v>
       </c>
       <c r="E6">
-        <v>1.506251270947781E-28</v>
+        <v>3.436786180856466E-42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999411884</v>
+        <v>0.9999999997692886</v>
       </c>
       <c r="E7">
-        <v>5.881162223886349E-11</v>
+        <v>2.307114499444651E-10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.295857420963699E-17</v>
+        <v>3.061003580600538E-12</v>
       </c>
       <c r="E8">
-        <v>0.9999999999999999</v>
+        <v>0.999999999996939</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.590110385857125E-10</v>
+        <v>7.27035580250089E-09</v>
       </c>
       <c r="E9">
-        <v>0.999999999740989</v>
+        <v>0.9999999927296442</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.932118706613043E-06</v>
+        <v>6.190673795807732E-07</v>
       </c>
       <c r="E10">
-        <v>0.9999960678812934</v>
+        <v>0.9999993809326204</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.875294409141682E-15</v>
+        <v>6.144811118196574E-13</v>
       </c>
       <c r="E11">
-        <v>0.9999999999999921</v>
+        <v>0.9999999999993855</v>
       </c>
       <c r="F11">
-        <v>14.31105041503906</v>
+        <v>12.66297912597656</v>
       </c>
       <c r="G11">
         <v>0.5</v>
